--- a/Project/doc/backlog.xlsx
+++ b/Project/doc/backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Задача</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Реализовать подсчет времени до закрытия солнца</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Нарисовать концептуальную модель</t>
+  </si>
+  <si>
+    <t>Нарисовать диаграмму классов</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -349,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,28 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,6 +438,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -748,35 +766,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -791,16 +812,16 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -815,22 +836,24 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>0.1</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="11">
         <v>0.1</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="35">
+        <v>44611</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -845,22 +868,24 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>0.2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="12">
         <v>0.2</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -874,23 +899,21 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -904,23 +927,19 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -935,22 +954,24 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>16</v>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19">
-        <v>3</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -964,23 +985,25 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="36">
+        <v>44615</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -995,22 +1018,22 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>20</v>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="14"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1024,23 +1047,23 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>19</v>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1055,22 +1078,22 @@
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>13</v>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="21" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1085,22 +1108,22 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>14</v>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1115,22 +1138,22 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>15</v>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1144,23 +1167,23 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="23">
-        <v>4</v>
-      </c>
-      <c r="D14" s="24">
-        <v>4</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1174,13 +1197,23 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+    <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1194,13 +1227,23 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="3"/>
+    <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17">
+        <v>4</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1214,13 +1257,13 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
+    <row r="17" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1235,11 +1278,11 @@
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1254,12 +1297,12 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="31"/>
+    <row r="19" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1274,12 +1317,12 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="31"/>
+    <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1295,11 +1338,11 @@
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1315,11 +1358,11 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1335,11 +1378,11 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1355,11 +1398,11 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1375,11 +1418,11 @@
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1398,8 +1441,8 @@
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1414,12 +1457,12 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1434,12 +1477,12 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1454,46 +1497,52 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+    <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1509,8 +1558,8 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1526,8 +1575,8 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1539,150 +1588,185 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E40" s="30"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="30"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E42" s="30"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E43" s="30"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E44" s="30"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="30"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E46" s="30"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E47" s="30"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E48" s="30"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="30"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="30"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="30"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="30"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="30"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="30"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="30"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="30"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="30"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="30"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="30"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="30"/>
+      <c r="E60" s="23"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="30"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="30"/>
+      <c r="E62" s="23"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="30"/>
+      <c r="E63" s="23"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="30"/>
+      <c r="E64" s="23"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="30"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="30"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="30"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="30"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="30"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="30"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="30"/>
+      <c r="E71" s="23"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="30"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="30"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="30"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="30"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="30"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="30"/>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
